--- a/meta/objects/Locale.xlsx
+++ b/meta/objects/Locale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGenerator/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1D6EB-5A20-C642-B707-8FB7E3E1D0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2CA35-E351-1F4B-894D-30C6D5C7CB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="760" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,14 +188,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>blanco\rest\valueobject</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>blanco.rest.valueobject</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>言語コード．defaultはja</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -358,6 +350,14 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>blanco\restgenerator\valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1215,6 +1215,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,12 +1238,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1652,8 +1652,8 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="11"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="11" spans="1:14" s="34" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -1808,11 +1808,11 @@
     </row>
     <row r="12" spans="1:14" s="34" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1821,11 +1821,11 @@
     </row>
     <row r="13" spans="1:14" s="34" customFormat="1">
       <c r="A13" s="56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="58" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1">
       <c r="A20" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1">
       <c r="A21" s="64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
@@ -1989,50 +1989,50 @@
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F27" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="84"/>
-      <c r="I27" s="83" t="s">
+      <c r="H27" s="86"/>
+      <c r="I27" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="84"/>
+      <c r="J27" s="86"/>
       <c r="K27" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="79"/>
+      <c r="M27" s="81"/>
       <c r="N27" s="15"/>
       <c r="O27" s="16"/>
       <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="79"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="43" t="s">
         <v>22</v>
       </c>
@@ -2048,8 +2048,8 @@
       <c r="K28" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
       <c r="N28" s="17"/>
       <c r="O28" s="29"/>
       <c r="P28" s="14"/>
@@ -2059,17 +2059,17 @@
         <v>1</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D29" s="20"/>
-      <c r="E29" s="85" t="s">
-        <v>59</v>
+      <c r="E29" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G29" s="44"/>
       <c r="H29" s="45"/>
@@ -2077,7 +2077,7 @@
       <c r="J29" s="45"/>
       <c r="K29" s="46"/>
       <c r="L29" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -2089,17 +2089,17 @@
         <v>2</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="20"/>
-      <c r="E30" s="85" t="s">
-        <v>59</v>
+      <c r="E30" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -2107,7 +2107,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
@@ -2119,17 +2119,17 @@
         <v>3</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="20"/>
-      <c r="E31" s="85" t="s">
-        <v>59</v>
+      <c r="E31" s="79" t="s">
+        <v>57</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -2137,7 +2137,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -2149,7 +2149,7 @@
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="85"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -2167,7 +2167,7 @@
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="85"/>
+      <c r="E33" s="79"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
@@ -2185,7 +2185,7 @@
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="85"/>
+      <c r="E34" s="79"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
@@ -2203,7 +2203,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="E35" s="85"/>
+      <c r="E35" s="79"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
@@ -2221,7 +2221,7 @@
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
-      <c r="E36" s="85"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
@@ -2239,7 +2239,7 @@
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="85"/>
+      <c r="E37" s="79"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -2257,7 +2257,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="85"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -2275,7 +2275,7 @@
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="85"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -2293,7 +2293,7 @@
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
-      <c r="E40" s="85"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
@@ -2311,7 +2311,7 @@
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="85"/>
+      <c r="E41" s="79"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
@@ -2329,7 +2329,7 @@
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
-      <c r="E42" s="85"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
@@ -2347,7 +2347,7 @@
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
-      <c r="E43" s="86"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -2426,7 +2426,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2437,28 +2437,28 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M1" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="H3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="J3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>44</v>
-      </c>
       <c r="L3" s="50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2471,22 +2471,22 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/meta/objects/Locale.xlsx
+++ b/meta/objects/Locale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorTs/meta/objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB2CA35-E351-1F4B-894D-30C6D5C7CB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564B81EA-40BC-7C44-8110-967168349CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="760" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="5080" windowWidth="24240" windowHeight="13740" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>クラス名</t>
   </si>
@@ -192,19 +192,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ja</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>lang</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>tz</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JST</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -219,10 +211,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>JPY</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>通貨</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ツウカ </t>
@@ -357,6 +345,47 @@
   </si>
   <si>
     <t>blanco.restgenerator.valueobject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>import文の自動生成</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>/* TypeScript 独自。blancoで一括生成されたクラスについて、import文を自動生成します。 */</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ドクジ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">イッカツ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="47" eb="51">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"ja"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"JST"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>"JPY"</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1069,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1220,6 +1249,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,10 +1685,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1707,7 +1742,7 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1725,7 +1760,7 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="11"/>
@@ -1743,7 +1778,7 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1761,7 +1796,7 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -1781,7 +1816,7 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -1797,7 +1832,7 @@
     </row>
     <row r="11" spans="1:14" s="34" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
@@ -1808,11 +1843,11 @@
     </row>
     <row r="12" spans="1:14" s="34" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="57"/>
       <c r="C12" s="58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1821,65 +1856,74 @@
     </row>
     <row r="13" spans="1:14" s="34" customFormat="1">
       <c r="A13" s="56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="57"/>
       <c r="C13" s="58" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" s="34" customFormat="1">
-      <c r="A15" s="31" t="s">
+    <row r="14" spans="1:14" s="34" customFormat="1">
+      <c r="A14" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="34" customFormat="1">
+      <c r="A16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-    </row>
-    <row r="16" spans="1:14" s="34" customFormat="1">
-      <c r="A16" s="35" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1">
+      <c r="A17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" spans="1:16" s="34" customFormat="1">
-      <c r="A17" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1">
       <c r="A18" s="59" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -1888,248 +1932,228 @@
       <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="A19" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="38"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1">
-      <c r="A20" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="63"/>
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1">
-      <c r="A21" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
+      <c r="A21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="A22" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="66"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1">
       <c r="A23" s="68"/>
       <c r="B23" s="69"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="72"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
       <c r="G24" s="72"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="72"/>
       <c r="H25"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="3" t="s">
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A28" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B28" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C28" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D28" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E28" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F28" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G28" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="86"/>
-      <c r="I27" s="85" t="s">
+      <c r="H28" s="88"/>
+      <c r="I28" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="86"/>
-      <c r="K27" s="42" t="s">
+      <c r="J28" s="88"/>
+      <c r="K28" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L27" s="81" t="s">
+      <c r="L28" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="M27" s="81"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="43" t="s">
+      <c r="M28" s="83"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="84"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J29" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="K28" s="43" t="s">
+      <c r="K29" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="18">
-        <v>1</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="44"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="28"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="14"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="79" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
+        <v>59</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
       <c r="L30" s="20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M30" s="21"/>
       <c r="N30" s="21"/>
-      <c r="O30" s="22"/>
+      <c r="O30" s="28"/>
       <c r="P30" s="14"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="79" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -2137,7 +2161,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -2145,18 +2169,30 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="18">
+        <v>3</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="D32" s="20"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="20"/>
+      <c r="E32" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="L32" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="22"/>
@@ -2168,12 +2204,12 @@
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="79"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
@@ -2186,12 +2222,12 @@
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="79"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -2204,12 +2240,12 @@
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="79"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
@@ -2222,12 +2258,12 @@
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="79"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="20"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
@@ -2240,12 +2276,12 @@
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="79"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="21"/>
       <c r="N37" s="21"/>
@@ -2258,12 +2294,12 @@
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="79"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
       <c r="L38" s="20"/>
       <c r="M38" s="21"/>
       <c r="N38" s="21"/>
@@ -2343,38 +2379,56 @@
       <c r="P42" s="14"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="23"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59 G49:K49" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F60 G50:K50" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2387,7 +2441,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{BCC646AA-BFB1-2944-8D26-F9FAAA4A8250}">
       <formula1>adjustDefaultValue</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E42 E43" xr:uid="{5896ACEF-5A80-5444-A73C-A29B5D5191CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E30:E44" xr:uid="{5896ACEF-5A80-5444-A73C-A29B5D5191CA}">
       <formula1>isRequired</formula1>
     </dataValidation>
   </dataValidations>
@@ -2426,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="19">
       <c r="A1" s="47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2437,28 +2491,28 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M1" s="48"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="J3" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>42</v>
-      </c>
       <c r="L3" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2471,22 +2525,22 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13">
